--- a/phpexcel_test/demo_222.xlsx
+++ b/phpexcel_test/demo_222.xlsx
@@ -65,16 +65,16 @@
     <t>Ina</t>
   </si>
   <si>
+    <t>Kobo</t>
+  </si>
+  <si>
     <t>Irys</t>
   </si>
   <si>
-    <t>Kobo</t>
+    <t>Zeta</t>
   </si>
   <si>
     <t>Ame</t>
-  </si>
-  <si>
-    <t>Zeta</t>
   </si>
   <si>
     <t>Gigi</t>
@@ -510,7 +510,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R16"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="R16" sqref="R16"/>
@@ -708,12 +708,8 @@
       <c r="R6" s="7"/>
     </row>
     <row r="7" spans="1:18" customHeight="1" ht="20">
-      <c r="A7" s="5">
-        <v>2</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>16</v>
-      </c>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="7"/>
@@ -765,7 +761,7 @@
       <c r="E9" s="7"/>
       <c r="F9" s="7"/>
       <c r="G9" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H9" s="7"/>
       <c r="I9" s="7"/>
@@ -781,10 +777,10 @@
     </row>
     <row r="10" spans="1:18" customHeight="1" ht="20">
       <c r="A10" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C10" s="7"/>
       <c r="D10" s="7">
@@ -838,7 +834,7 @@
       <c r="B12" s="5"/>
       <c r="C12" s="7"/>
       <c r="D12" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E12" s="7"/>
       <c r="F12" s="7"/>
@@ -848,7 +844,7 @@
       <c r="J12" s="7"/>
       <c r="K12" s="7"/>
       <c r="L12" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="7"/>
@@ -858,12 +854,8 @@
       <c r="R12" s="7"/>
     </row>
     <row r="13" spans="1:18" customHeight="1" ht="20">
-      <c r="A13" s="5">
-        <v>4</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>20</v>
-      </c>
+      <c r="A13" s="5"/>
+      <c r="B13" s="5"/>
       <c r="C13" s="7"/>
       <c r="D13" s="7"/>
       <c r="E13" s="7"/>
@@ -922,7 +914,7 @@
       <c r="L15" s="7"/>
       <c r="M15" s="7"/>
       <c r="N15" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -930,10 +922,12 @@
       <c r="R15" s="7"/>
     </row>
     <row r="16" spans="1:18" customHeight="1" ht="20">
-      <c r="A16" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="6"/>
+      <c r="A16" s="5">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>19</v>
+      </c>
       <c r="C16" s="8">
         <v>0</v>
       </c>
@@ -980,20 +974,74 @@
         <v>0</v>
       </c>
       <c r="R16" s="9"/>
+    </row>
+    <row r="17" spans="1:18">
+      <c r="A17" s="5"/>
+      <c r="B17" s="5"/>
+    </row>
+    <row r="18" spans="1:18">
+      <c r="A18" s="5"/>
+      <c r="B18" s="5"/>
+    </row>
+    <row r="19" spans="1:18">
+      <c r="A19" s="5"/>
+      <c r="B19" s="5"/>
+    </row>
+    <row r="20" spans="1:18">
+      <c r="A20" s="5"/>
+      <c r="B20" s="5"/>
+    </row>
+    <row r="21" spans="1:18">
+      <c r="A21" s="5"/>
+      <c r="B21" s="5"/>
+    </row>
+    <row r="22" spans="1:18">
+      <c r="A22" s="5">
+        <v>4</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+    </row>
+    <row r="24" spans="1:18">
+      <c r="A24" s="5"/>
+      <c r="B24" s="5"/>
+    </row>
+    <row r="25" spans="1:18">
+      <c r="A25" s="5"/>
+      <c r="B25" s="5"/>
+    </row>
+    <row r="26" spans="1:18">
+      <c r="A26" s="5"/>
+      <c r="B26" s="5"/>
+    </row>
+    <row r="27" spans="1:18">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+    </row>
+    <row r="28" spans="1:18">
+      <c r="A28" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="6"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A1:R2"/>
-    <mergeCell ref="A4:A6"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="A10:A12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="B13:B15"/>
-    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="B4:B9"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="B10:B15"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="B16:B21"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="B22:B27"/>
+    <mergeCell ref="A28:B28"/>
     <mergeCell ref="R4:R6"/>
     <mergeCell ref="R7:R9"/>
     <mergeCell ref="R10:R12"/>

--- a/phpexcel_test/demo_222.xlsx
+++ b/phpexcel_test/demo_222.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>工地狀況查詢</t>
   </si>
@@ -53,31 +53,40 @@
     <t>09</t>
   </si>
   <si>
+    <t>台積電</t>
+  </si>
+  <si>
+    <t>小隊</t>
+  </si>
+  <si>
+    <t>人數</t>
+  </si>
+  <si>
+    <t>工數</t>
+  </si>
+  <si>
+    <t>被支援移工</t>
+  </si>
+  <si>
+    <t>被支援外調</t>
+  </si>
+  <si>
+    <t>華碩</t>
+  </si>
+  <si>
+    <t>台達電</t>
+  </si>
+  <si>
+    <t>聯發科</t>
+  </si>
+  <si>
     <t>合計</t>
   </si>
   <si>
-    <t>Gura</t>
-  </si>
-  <si>
-    <t>支援EN</t>
-  </si>
-  <si>
-    <t>Ina</t>
-  </si>
-  <si>
-    <t>Kobo</t>
-  </si>
-  <si>
-    <t>Irys</t>
-  </si>
-  <si>
-    <t>Zeta</t>
-  </si>
-  <si>
-    <t>Ame</t>
-  </si>
-  <si>
-    <t>Gigi</t>
+    <t>總人數</t>
+  </si>
+  <si>
+    <t>總工數</t>
   </si>
 </sst>
 </file>
@@ -146,7 +155,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="12">
     <border/>
     <border>
       <left style="thin">
@@ -173,6 +182,132 @@
         <color rgb="FF000000"/>
       </top>
       <bottom style="thick">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="dotted">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="dotted">
+        <color rgb="FF000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="dotted">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="dotted">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
     </border>
@@ -180,7 +315,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -199,16 +334,37 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
     <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="3" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="4" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="2" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="5" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="6" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="7" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="8" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="9" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="10" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
+    </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -510,34 +666,19 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:BJ29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="Q29" sqref="Q29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col min="2" max="2" width="20" customWidth="true" style="0"/>
-    <col min="18" max="18" width="3" customWidth="true" style="0"/>
-    <col min="3" max="3" width="3" customWidth="true" style="0"/>
-    <col min="4" max="4" width="9" customWidth="true" style="0"/>
-    <col min="5" max="5" width="3" customWidth="true" style="0"/>
-    <col min="6" max="6" width="3" customWidth="true" style="0"/>
-    <col min="7" max="7" width="9" customWidth="true" style="0"/>
-    <col min="8" max="8" width="3" customWidth="true" style="0"/>
-    <col min="9" max="9" width="3" customWidth="true" style="0"/>
-    <col min="10" max="10" width="3" customWidth="true" style="0"/>
-    <col min="11" max="11" width="3" customWidth="true" style="0"/>
-    <col min="12" max="12" width="9" customWidth="true" style="0"/>
-    <col min="13" max="13" width="3" customWidth="true" style="0"/>
-    <col min="14" max="14" width="9" customWidth="true" style="0"/>
-    <col min="15" max="15" width="3" customWidth="true" style="0"/>
-    <col min="16" max="16" width="3" customWidth="true" style="0"/>
-    <col min="17" max="17" width="3" customWidth="true" style="0"/>
+    <col min="18" max="18" width="20" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" customHeight="1" ht="20">
+    <row r="1" spans="1:62" customHeight="1" ht="20">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -559,7 +700,7 @@
       <c r="Q1" s="2"/>
       <c r="R1" s="2"/>
     </row>
-    <row r="2" spans="1:18" customHeight="1" ht="20">
+    <row r="2" spans="1:62" customHeight="1" ht="20">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -579,7 +720,7 @@
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
     </row>
-    <row r="3" spans="1:18">
+    <row r="3" spans="1:62">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -589,450 +730,545 @@
       <c r="C3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="4" t="s">
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="4">
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4">
         <v>10</v>
       </c>
-      <c r="M3" s="4">
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4">
         <v>11</v>
       </c>
-      <c r="N3" s="4">
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4">
         <v>12</v>
       </c>
-      <c r="O3" s="4">
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4">
         <v>13</v>
       </c>
-      <c r="P3" s="4">
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4">
         <v>14</v>
       </c>
-      <c r="Q3" s="4">
+      <c r="BD3" s="4"/>
+      <c r="BE3" s="4"/>
+      <c r="BF3" s="4"/>
+      <c r="BG3" s="4">
         <v>15</v>
       </c>
-      <c r="R3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" customHeight="1" ht="20">
+      <c r="BH3" s="4"/>
+      <c r="BI3" s="4"/>
+      <c r="BJ3" s="4"/>
+    </row>
+    <row r="4" spans="1:62">
       <c r="A4" s="5">
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7">
-        <v>2</v>
-      </c>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-      <c r="P4" s="7"/>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18" customHeight="1" ht="20">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:62">
       <c r="A5" s="5"/>
       <c r="B5" s="5"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="7"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7" t="s">
+      <c r="C5" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="7"/>
-    </row>
-    <row r="6" spans="1:18" customHeight="1" ht="20">
+      <c r="D5" s="8">
+        <v>7</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:62">
       <c r="A6" s="5"/>
       <c r="B6" s="5"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="7"/>
-    </row>
-    <row r="7" spans="1:18" customHeight="1" ht="20">
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="15"/>
+    </row>
+    <row r="7" spans="1:62">
       <c r="A7" s="5"/>
       <c r="B7" s="5"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7">
-        <v>2</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="7"/>
-      <c r="K7" s="7"/>
-      <c r="L7" s="7"/>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" customHeight="1" ht="20">
+      <c r="C7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="8">
+        <v>7</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:62">
       <c r="A8" s="5"/>
       <c r="B8" s="5"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="7"/>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="7"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-    </row>
-    <row r="9" spans="1:18" customHeight="1" ht="20">
+      <c r="C8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+      <c r="F8" s="15"/>
+    </row>
+    <row r="9" spans="1:62">
       <c r="A9" s="5"/>
       <c r="B9" s="5"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="7"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-    </row>
-    <row r="10" spans="1:18" customHeight="1" ht="20">
+      <c r="C9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="13">
+        <v>7</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:62">
       <c r="A10" s="5">
         <v>2</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7">
-        <v>2</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="7"/>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7">
-        <v>2</v>
-      </c>
-      <c r="M10" s="7"/>
-      <c r="N10" s="7"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" customHeight="1" ht="20">
+        <v>18</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:62">
       <c r="A11" s="5"/>
       <c r="B11" s="5"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7" t="s">
+      <c r="C11" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7"/>
-      <c r="J11" s="7"/>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="M11" s="7"/>
-      <c r="N11" s="7"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-    </row>
-    <row r="12" spans="1:18" customHeight="1" ht="20">
+      <c r="D11" s="8">
+        <v>7</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:62">
       <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7"/>
-      <c r="J12" s="7"/>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7" t="s">
+      <c r="C12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M12" s="7"/>
-      <c r="N12" s="7"/>
-      <c r="O12" s="7"/>
-      <c r="P12" s="7"/>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="7"/>
-    </row>
-    <row r="13" spans="1:18" customHeight="1" ht="20">
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="15"/>
+    </row>
+    <row r="13" spans="1:62">
       <c r="A13" s="5"/>
       <c r="B13" s="5"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="7">
-        <v>2</v>
-      </c>
-      <c r="O13" s="7"/>
-      <c r="P13" s="7"/>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="7">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" customHeight="1" ht="20">
+      <c r="C13" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="8">
+        <v>7</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:62">
       <c r="A14" s="5"/>
       <c r="B14" s="5"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7"/>
-      <c r="J14" s="7"/>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="O14" s="7"/>
-      <c r="P14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="R14" s="7"/>
-    </row>
-    <row r="15" spans="1:18" customHeight="1" ht="20">
+      <c r="C14" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="15"/>
+    </row>
+    <row r="15" spans="1:62">
       <c r="A15" s="5"/>
       <c r="B15" s="5"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7"/>
-      <c r="J15" s="7"/>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="O15" s="7"/>
-      <c r="P15" s="7"/>
-      <c r="Q15" s="7"/>
-      <c r="R15" s="7"/>
-    </row>
-    <row r="16" spans="1:18" customHeight="1" ht="20">
+      <c r="C15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="13">
+        <v>7</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:62">
       <c r="A16" s="5">
         <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C16" s="8">
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
-        <v>2</v>
-      </c>
-      <c r="E16" s="8">
-        <v>0</v>
-      </c>
-      <c r="F16" s="8">
-        <v>0</v>
-      </c>
-      <c r="G16" s="8">
-        <v>2</v>
-      </c>
-      <c r="H16" s="8">
-        <v>0</v>
-      </c>
-      <c r="I16" s="8">
-        <v>0</v>
-      </c>
-      <c r="J16" s="8">
-        <v>0</v>
-      </c>
-      <c r="K16" s="8">
-        <v>0</v>
-      </c>
-      <c r="L16" s="8">
-        <v>4</v>
-      </c>
-      <c r="M16" s="8">
-        <v>0</v>
-      </c>
-      <c r="N16" s="8">
-        <v>2</v>
-      </c>
-      <c r="O16" s="8">
-        <v>0</v>
-      </c>
-      <c r="P16" s="8">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="8">
-        <v>0</v>
-      </c>
-      <c r="R16" s="9"/>
-    </row>
-    <row r="17" spans="1:18">
+      <c r="C16" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="14"/>
+    </row>
+    <row r="17" spans="1:62">
       <c r="A17" s="5"/>
       <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:18">
+      <c r="C17" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="8">
+        <v>7</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:62">
       <c r="A18" s="5"/>
       <c r="B18" s="5"/>
-    </row>
-    <row r="19" spans="1:18">
+      <c r="C18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="8"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="15"/>
+    </row>
+    <row r="19" spans="1:62">
       <c r="A19" s="5"/>
       <c r="B19" s="5"/>
-    </row>
-    <row r="20" spans="1:18">
+      <c r="C19" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="8">
+        <v>7</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:62">
       <c r="A20" s="5"/>
       <c r="B20" s="5"/>
-    </row>
-    <row r="21" spans="1:18">
+      <c r="C20" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="15"/>
+    </row>
+    <row r="21" spans="1:62">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
-    </row>
-    <row r="22" spans="1:18">
+      <c r="C21" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="13">
+        <v>7</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:62">
       <c r="A22" s="5">
         <v>4</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:18">
+      <c r="C22" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="14"/>
+    </row>
+    <row r="23" spans="1:62">
       <c r="A23" s="5"/>
       <c r="B23" s="5"/>
-    </row>
-    <row r="24" spans="1:18">
+      <c r="C23" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" s="8">
+        <v>7</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="1:62">
       <c r="A24" s="5"/>
       <c r="B24" s="5"/>
-    </row>
-    <row r="25" spans="1:18">
+      <c r="C24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="15"/>
+    </row>
+    <row r="25" spans="1:62">
       <c r="A25" s="5"/>
       <c r="B25" s="5"/>
-    </row>
-    <row r="26" spans="1:18">
+      <c r="C25" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D25" s="8">
+        <v>7</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:62">
       <c r="A26" s="5"/>
       <c r="B26" s="5"/>
-    </row>
-    <row r="27" spans="1:18">
+      <c r="C26" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="15"/>
+    </row>
+    <row r="27" spans="1:62">
       <c r="A27" s="5"/>
       <c r="B27" s="5"/>
-    </row>
-    <row r="28" spans="1:18">
-      <c r="A28" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="B28" s="6"/>
+      <c r="C27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D27" s="13">
+        <v>7</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="16">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:62">
+      <c r="A28" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
+        <v>0</v>
+      </c>
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
+        <v>0</v>
+      </c>
+      <c r="J28" s="6">
+        <v>0</v>
+      </c>
+      <c r="K28" s="6">
+        <v>0</v>
+      </c>
+      <c r="L28" s="6">
+        <v>0</v>
+      </c>
+      <c r="M28" s="6">
+        <v>0</v>
+      </c>
+      <c r="N28" s="6">
+        <v>0</v>
+      </c>
+      <c r="O28" s="6">
+        <v>0</v>
+      </c>
+      <c r="P28" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:62">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
+        <v>0</v>
+      </c>
+      <c r="I29" s="6">
+        <v>0</v>
+      </c>
+      <c r="J29" s="6">
+        <v>0</v>
+      </c>
+      <c r="K29" s="6">
+        <v>0</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0</v>
+      </c>
+      <c r="M29" s="6">
+        <v>0</v>
+      </c>
+      <c r="N29" s="6">
+        <v>0</v>
+      </c>
+      <c r="O29" s="6">
+        <v>0</v>
+      </c>
+      <c r="P29" s="6">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="6">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
   <mergeCells>
     <mergeCell ref="A1:R2"/>
+    <mergeCell ref="C3:F3"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:N3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="W3:Z3"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="AI3:AL3"/>
+    <mergeCell ref="AM3:AP3"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AU3:AX3"/>
+    <mergeCell ref="AY3:BB3"/>
+    <mergeCell ref="BC3:BF3"/>
+    <mergeCell ref="BG3:BJ3"/>
     <mergeCell ref="A4:A9"/>
     <mergeCell ref="B4:B9"/>
     <mergeCell ref="A10:A15"/>
@@ -1041,11 +1277,19 @@
     <mergeCell ref="B16:B21"/>
     <mergeCell ref="A22:A27"/>
     <mergeCell ref="B22:B27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="R4:R6"/>
-    <mergeCell ref="R7:R9"/>
-    <mergeCell ref="R10:R12"/>
-    <mergeCell ref="R13:R15"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C26:F26"/>
   </mergeCells>
   <printOptions gridLines="false" gridLinesSet="true"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/phpexcel_test/demo_222.xlsx
+++ b/phpexcel_test/demo_222.xlsx
@@ -151,7 +151,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -169,12 +169,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFD700"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFDC00"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
@@ -280,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -294,9 +288,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="2" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
-    </xf>
-    <xf xfId="0" fontId="0" numFmtId="0" fillId="3" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="2" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0">
@@ -326,7 +317,7 @@
     <xf xfId="0" fontId="3" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="3" numFmtId="0" fillId="4" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="3" numFmtId="0" fillId="3" borderId="10" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
@@ -335,7 +326,7 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="11" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" shrinkToFit="false"/>
     </xf>
-    <xf xfId="0" fontId="2" numFmtId="0" fillId="4" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf xfId="0" fontId="2" numFmtId="0" fillId="3" borderId="11" applyFont="1" applyNumberFormat="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
@@ -790,1427 +781,1427 @@
       <c r="AN3" s="4"/>
       <c r="AO3" s="4"/>
       <c r="AP3" s="4"/>
-      <c r="AQ3" s="5" t="s">
+      <c r="AQ3" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:44">
-      <c r="A4" s="14">
+      <c r="A4" s="13">
         <v>1</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="16" t="s">
+      <c r="C4" s="5"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="16"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="9"/>
-      <c r="M4" s="9"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="9"/>
-      <c r="R4" s="11"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="9"/>
-      <c r="U4" s="9"/>
-      <c r="V4" s="11"/>
-      <c r="W4" s="6"/>
-      <c r="X4" s="9"/>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="11"/>
-      <c r="AA4" s="6"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="11"/>
-      <c r="AE4" s="6"/>
-      <c r="AF4" s="9"/>
-      <c r="AG4" s="9"/>
-      <c r="AH4" s="11"/>
-      <c r="AI4" s="6"/>
-      <c r="AJ4" s="9"/>
-      <c r="AK4" s="9"/>
-      <c r="AL4" s="11"/>
-      <c r="AM4" s="6"/>
-      <c r="AN4" s="9"/>
-      <c r="AO4" s="9"/>
-      <c r="AP4" s="11"/>
-      <c r="AQ4" s="17" t="s">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="8"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="8"/>
+      <c r="U4" s="8"/>
+      <c r="V4" s="10"/>
+      <c r="W4" s="5"/>
+      <c r="X4" s="8"/>
+      <c r="Y4" s="8"/>
+      <c r="Z4" s="10"/>
+      <c r="AA4" s="5"/>
+      <c r="AB4" s="8"/>
+      <c r="AC4" s="8"/>
+      <c r="AD4" s="10"/>
+      <c r="AE4" s="5"/>
+      <c r="AF4" s="8"/>
+      <c r="AG4" s="8"/>
+      <c r="AH4" s="10"/>
+      <c r="AI4" s="5"/>
+      <c r="AJ4" s="8"/>
+      <c r="AK4" s="8"/>
+      <c r="AL4" s="10"/>
+      <c r="AM4" s="5"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AP4" s="10"/>
+      <c r="AQ4" s="16" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:44">
-      <c r="A5" s="14"/>
-      <c r="B5" s="14"/>
-      <c r="C5" s="7"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="13"/>
+      <c r="C5" s="6"/>
       <c r="D5"/>
       <c r="E5"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="16" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="16">
+      <c r="H5" s="15">
         <v>1</v>
       </c>
-      <c r="I5" s="16" t="s">
+      <c r="I5" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J5" s="16">
+      <c r="J5" s="15">
         <v>1</v>
       </c>
-      <c r="K5" s="7"/>
+      <c r="K5" s="6"/>
       <c r="L5"/>
       <c r="M5"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="7"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="6"/>
       <c r="P5"/>
       <c r="Q5"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="7"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="6"/>
       <c r="T5"/>
       <c r="U5"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="7"/>
+      <c r="V5" s="11"/>
+      <c r="W5" s="6"/>
       <c r="X5"/>
       <c r="Y5"/>
-      <c r="Z5" s="12"/>
-      <c r="AA5" s="7"/>
+      <c r="Z5" s="11"/>
+      <c r="AA5" s="6"/>
       <c r="AB5"/>
       <c r="AC5"/>
-      <c r="AD5" s="12"/>
-      <c r="AE5" s="7"/>
+      <c r="AD5" s="11"/>
+      <c r="AE5" s="6"/>
       <c r="AF5"/>
       <c r="AG5"/>
-      <c r="AH5" s="12"/>
-      <c r="AI5" s="7"/>
+      <c r="AH5" s="11"/>
+      <c r="AI5" s="6"/>
       <c r="AJ5"/>
       <c r="AK5"/>
-      <c r="AL5" s="12"/>
-      <c r="AM5" s="7"/>
+      <c r="AL5" s="11"/>
+      <c r="AM5" s="6"/>
       <c r="AN5"/>
       <c r="AO5"/>
-      <c r="AP5" s="12"/>
-      <c r="AQ5" s="16"/>
+      <c r="AP5" s="11"/>
+      <c r="AQ5" s="15"/>
     </row>
     <row r="6" spans="1:44">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="7"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="6"/>
       <c r="D6"/>
       <c r="E6"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="16" t="s">
+      <c r="F6" s="11"/>
+      <c r="G6" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="16"/>
-      <c r="J6" s="16"/>
-      <c r="K6" s="7"/>
+      <c r="H6" s="15"/>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15"/>
+      <c r="K6" s="6"/>
       <c r="L6"/>
       <c r="M6"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="7"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="6"/>
       <c r="P6"/>
       <c r="Q6"/>
-      <c r="R6" s="12"/>
-      <c r="S6" s="7"/>
+      <c r="R6" s="11"/>
+      <c r="S6" s="6"/>
       <c r="T6"/>
       <c r="U6"/>
-      <c r="V6" s="12"/>
-      <c r="W6" s="7"/>
+      <c r="V6" s="11"/>
+      <c r="W6" s="6"/>
       <c r="X6"/>
       <c r="Y6"/>
-      <c r="Z6" s="12"/>
-      <c r="AA6" s="7"/>
+      <c r="Z6" s="11"/>
+      <c r="AA6" s="6"/>
       <c r="AB6"/>
       <c r="AC6"/>
-      <c r="AD6" s="12"/>
-      <c r="AE6" s="7"/>
+      <c r="AD6" s="11"/>
+      <c r="AE6" s="6"/>
       <c r="AF6"/>
       <c r="AG6"/>
-      <c r="AH6" s="12"/>
-      <c r="AI6" s="7"/>
+      <c r="AH6" s="11"/>
+      <c r="AI6" s="6"/>
       <c r="AJ6"/>
       <c r="AK6"/>
-      <c r="AL6" s="12"/>
-      <c r="AM6" s="7"/>
+      <c r="AL6" s="11"/>
+      <c r="AM6" s="6"/>
       <c r="AN6"/>
       <c r="AO6"/>
-      <c r="AP6" s="12"/>
-      <c r="AQ6" s="16"/>
+      <c r="AP6" s="11"/>
+      <c r="AQ6" s="15"/>
     </row>
     <row r="7" spans="1:44">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-      <c r="C7" s="7"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="6"/>
       <c r="D7"/>
       <c r="E7"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="16" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="16">
+      <c r="H7" s="15">
         <v>1</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="I7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J7" s="16">
+      <c r="J7" s="15">
         <v>1</v>
       </c>
-      <c r="K7" s="7"/>
+      <c r="K7" s="6"/>
       <c r="L7"/>
       <c r="M7"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="7"/>
+      <c r="N7" s="11"/>
+      <c r="O7" s="6"/>
       <c r="P7"/>
       <c r="Q7"/>
-      <c r="R7" s="12"/>
-      <c r="S7" s="7"/>
+      <c r="R7" s="11"/>
+      <c r="S7" s="6"/>
       <c r="T7"/>
       <c r="U7"/>
-      <c r="V7" s="12"/>
-      <c r="W7" s="7"/>
+      <c r="V7" s="11"/>
+      <c r="W7" s="6"/>
       <c r="X7"/>
       <c r="Y7"/>
-      <c r="Z7" s="12"/>
-      <c r="AA7" s="7"/>
+      <c r="Z7" s="11"/>
+      <c r="AA7" s="6"/>
       <c r="AB7"/>
       <c r="AC7"/>
-      <c r="AD7" s="12"/>
-      <c r="AE7" s="7"/>
+      <c r="AD7" s="11"/>
+      <c r="AE7" s="6"/>
       <c r="AF7"/>
       <c r="AG7"/>
-      <c r="AH7" s="12"/>
-      <c r="AI7" s="7"/>
+      <c r="AH7" s="11"/>
+      <c r="AI7" s="6"/>
       <c r="AJ7"/>
       <c r="AK7"/>
-      <c r="AL7" s="12"/>
-      <c r="AM7" s="7"/>
+      <c r="AL7" s="11"/>
+      <c r="AM7" s="6"/>
       <c r="AN7"/>
       <c r="AO7"/>
-      <c r="AP7" s="12"/>
-      <c r="AQ7" s="16"/>
+      <c r="AP7" s="11"/>
+      <c r="AQ7" s="15"/>
     </row>
     <row r="8" spans="1:44">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-      <c r="C8" s="7"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="6"/>
       <c r="D8"/>
       <c r="E8"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="16" t="s">
+      <c r="F8" s="11"/>
+      <c r="G8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="16"/>
-      <c r="J8" s="16"/>
-      <c r="K8" s="7"/>
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="6"/>
       <c r="L8"/>
       <c r="M8"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="7"/>
+      <c r="N8" s="11"/>
+      <c r="O8" s="6"/>
       <c r="P8"/>
       <c r="Q8"/>
-      <c r="R8" s="12"/>
-      <c r="S8" s="7"/>
+      <c r="R8" s="11"/>
+      <c r="S8" s="6"/>
       <c r="T8"/>
       <c r="U8"/>
-      <c r="V8" s="12"/>
-      <c r="W8" s="7"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="6"/>
       <c r="X8"/>
       <c r="Y8"/>
-      <c r="Z8" s="12"/>
-      <c r="AA8" s="7"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="6"/>
       <c r="AB8"/>
       <c r="AC8"/>
-      <c r="AD8" s="12"/>
-      <c r="AE8" s="7"/>
+      <c r="AD8" s="11"/>
+      <c r="AE8" s="6"/>
       <c r="AF8"/>
       <c r="AG8"/>
-      <c r="AH8" s="12"/>
-      <c r="AI8" s="7"/>
+      <c r="AH8" s="11"/>
+      <c r="AI8" s="6"/>
       <c r="AJ8"/>
       <c r="AK8"/>
-      <c r="AL8" s="12"/>
-      <c r="AM8" s="7"/>
+      <c r="AL8" s="11"/>
+      <c r="AM8" s="6"/>
       <c r="AN8"/>
       <c r="AO8"/>
-      <c r="AP8" s="12"/>
-      <c r="AQ8" s="16"/>
+      <c r="AP8" s="11"/>
+      <c r="AQ8" s="15"/>
     </row>
     <row r="9" spans="1:44">
-      <c r="A9" s="14"/>
-      <c r="B9" s="14"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="16" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="H9" s="16">
+      <c r="H9" s="15">
         <v>1</v>
       </c>
-      <c r="I9" s="16" t="s">
+      <c r="I9" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="16">
+      <c r="J9" s="15">
         <v>1</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="13"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="13"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="13"/>
-      <c r="W9" s="8"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="8"/>
-      <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="8"/>
-      <c r="AF9" s="10"/>
-      <c r="AG9" s="10"/>
-      <c r="AH9" s="13"/>
-      <c r="AI9" s="8"/>
-      <c r="AJ9" s="10"/>
-      <c r="AK9" s="10"/>
-      <c r="AL9" s="13"/>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="10"/>
-      <c r="AO9" s="10"/>
-      <c r="AP9" s="13"/>
-      <c r="AQ9" s="16"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="12"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="12"/>
+      <c r="S9" s="7"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="7"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="7"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="12"/>
+      <c r="AE9" s="7"/>
+      <c r="AF9" s="9"/>
+      <c r="AG9" s="9"/>
+      <c r="AH9" s="12"/>
+      <c r="AI9" s="7"/>
+      <c r="AJ9" s="9"/>
+      <c r="AK9" s="9"/>
+      <c r="AL9" s="12"/>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="9"/>
+      <c r="AO9" s="9"/>
+      <c r="AP9" s="12"/>
+      <c r="AQ9" s="15"/>
     </row>
     <row r="10" spans="1:44">
-      <c r="A10" s="14">
+      <c r="A10" s="13">
         <v>2</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="16" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-      <c r="N10" s="16"/>
-      <c r="O10" s="16" t="s">
+      <c r="L10" s="15"/>
+      <c r="M10" s="15"/>
+      <c r="N10" s="15"/>
+      <c r="O10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="P10" s="16"/>
-      <c r="Q10" s="16"/>
-      <c r="R10" s="16"/>
-      <c r="S10" s="16" t="s">
+      <c r="P10" s="15"/>
+      <c r="Q10" s="15"/>
+      <c r="R10" s="15"/>
+      <c r="S10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="T10" s="16"/>
-      <c r="U10" s="16"/>
-      <c r="V10" s="16"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="9"/>
-      <c r="Y10" s="9"/>
-      <c r="Z10" s="11"/>
-      <c r="AA10" s="6"/>
-      <c r="AB10" s="9"/>
-      <c r="AC10" s="9"/>
-      <c r="AD10" s="11"/>
-      <c r="AE10" s="6"/>
-      <c r="AF10" s="9"/>
-      <c r="AG10" s="9"/>
-      <c r="AH10" s="11"/>
-      <c r="AI10" s="6"/>
-      <c r="AJ10" s="9"/>
-      <c r="AK10" s="9"/>
-      <c r="AL10" s="11"/>
-      <c r="AM10" s="6"/>
-      <c r="AN10" s="9"/>
-      <c r="AO10" s="9"/>
-      <c r="AP10" s="11"/>
-      <c r="AQ10" s="17" t="s">
+      <c r="T10" s="15"/>
+      <c r="U10" s="15"/>
+      <c r="V10" s="15"/>
+      <c r="W10" s="5"/>
+      <c r="X10" s="8"/>
+      <c r="Y10" s="8"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="5"/>
+      <c r="AB10" s="8"/>
+      <c r="AC10" s="8"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="5"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="5"/>
+      <c r="AJ10" s="8"/>
+      <c r="AK10" s="8"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="5"/>
+      <c r="AN10" s="8"/>
+      <c r="AO10" s="8"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="16" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:44">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="7"/>
+      <c r="A11" s="13"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="6"/>
       <c r="D11"/>
       <c r="E11"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="7"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="6"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="16" t="s">
+      <c r="J11" s="11"/>
+      <c r="K11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L11" s="16">
+      <c r="L11" s="15">
         <v>2</v>
       </c>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N11" s="16">
+      <c r="N11" s="15">
         <v>2</v>
       </c>
-      <c r="O11" s="16" t="s">
+      <c r="O11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P11" s="16">
+      <c r="P11" s="15">
         <v>3</v>
       </c>
-      <c r="Q11" s="16" t="s">
+      <c r="Q11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R11" s="16">
+      <c r="R11" s="15">
         <v>3</v>
       </c>
-      <c r="S11" s="16" t="s">
+      <c r="S11" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T11" s="16">
+      <c r="T11" s="15">
         <v>6</v>
       </c>
-      <c r="U11" s="16" t="s">
+      <c r="U11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="V11" s="16">
+      <c r="V11" s="15">
         <v>6</v>
       </c>
-      <c r="W11" s="7"/>
+      <c r="W11" s="6"/>
       <c r="X11"/>
       <c r="Y11"/>
-      <c r="Z11" s="12"/>
-      <c r="AA11" s="7"/>
+      <c r="Z11" s="11"/>
+      <c r="AA11" s="6"/>
       <c r="AB11"/>
       <c r="AC11"/>
-      <c r="AD11" s="12"/>
-      <c r="AE11" s="7"/>
+      <c r="AD11" s="11"/>
+      <c r="AE11" s="6"/>
       <c r="AF11"/>
       <c r="AG11"/>
-      <c r="AH11" s="12"/>
-      <c r="AI11" s="7"/>
+      <c r="AH11" s="11"/>
+      <c r="AI11" s="6"/>
       <c r="AJ11"/>
       <c r="AK11"/>
-      <c r="AL11" s="12"/>
-      <c r="AM11" s="7"/>
+      <c r="AL11" s="11"/>
+      <c r="AM11" s="6"/>
       <c r="AN11"/>
       <c r="AO11"/>
-      <c r="AP11" s="12"/>
-      <c r="AQ11" s="16"/>
+      <c r="AP11" s="11"/>
+      <c r="AQ11" s="15"/>
     </row>
     <row r="12" spans="1:44">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="7"/>
+      <c r="A12" s="13"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="6"/>
       <c r="D12"/>
       <c r="E12"/>
-      <c r="F12" s="12"/>
-      <c r="G12" s="7"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="6"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="16" t="s">
+      <c r="J12" s="11"/>
+      <c r="K12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="L12" s="16"/>
-      <c r="M12" s="16"/>
-      <c r="N12" s="16"/>
-      <c r="O12" s="16" t="s">
+      <c r="L12" s="15"/>
+      <c r="M12" s="15"/>
+      <c r="N12" s="15"/>
+      <c r="O12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="P12" s="16"/>
-      <c r="Q12" s="16"/>
-      <c r="R12" s="16"/>
-      <c r="S12" s="16" t="s">
+      <c r="P12" s="15"/>
+      <c r="Q12" s="15"/>
+      <c r="R12" s="15"/>
+      <c r="S12" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="T12" s="16"/>
-      <c r="U12" s="16"/>
-      <c r="V12" s="16"/>
-      <c r="W12" s="7"/>
+      <c r="T12" s="15"/>
+      <c r="U12" s="15"/>
+      <c r="V12" s="15"/>
+      <c r="W12" s="6"/>
       <c r="X12"/>
       <c r="Y12"/>
-      <c r="Z12" s="12"/>
-      <c r="AA12" s="7"/>
+      <c r="Z12" s="11"/>
+      <c r="AA12" s="6"/>
       <c r="AB12"/>
       <c r="AC12"/>
-      <c r="AD12" s="12"/>
-      <c r="AE12" s="7"/>
+      <c r="AD12" s="11"/>
+      <c r="AE12" s="6"/>
       <c r="AF12"/>
       <c r="AG12"/>
-      <c r="AH12" s="12"/>
-      <c r="AI12" s="7"/>
+      <c r="AH12" s="11"/>
+      <c r="AI12" s="6"/>
       <c r="AJ12"/>
       <c r="AK12"/>
-      <c r="AL12" s="12"/>
-      <c r="AM12" s="7"/>
+      <c r="AL12" s="11"/>
+      <c r="AM12" s="6"/>
       <c r="AN12"/>
       <c r="AO12"/>
-      <c r="AP12" s="12"/>
-      <c r="AQ12" s="16"/>
+      <c r="AP12" s="11"/>
+      <c r="AQ12" s="15"/>
     </row>
     <row r="13" spans="1:44">
-      <c r="A13" s="14"/>
-      <c r="B13" s="14"/>
-      <c r="C13" s="7"/>
+      <c r="A13" s="13"/>
+      <c r="B13" s="13"/>
+      <c r="C13" s="6"/>
       <c r="D13"/>
       <c r="E13"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="7"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="6"/>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="16" t="s">
+      <c r="J13" s="11"/>
+      <c r="K13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L13" s="16">
+      <c r="L13" s="15">
         <v>2</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="M13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N13" s="16">
+      <c r="N13" s="15">
         <v>2</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="O13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P13" s="16">
+      <c r="P13" s="15">
         <v>3</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="Q13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R13" s="16">
+      <c r="R13" s="15">
         <v>3</v>
       </c>
-      <c r="S13" s="16" t="s">
+      <c r="S13" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T13" s="16">
+      <c r="T13" s="15">
         <v>6</v>
       </c>
-      <c r="U13" s="16" t="s">
+      <c r="U13" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="V13" s="16">
+      <c r="V13" s="15">
         <v>6</v>
       </c>
-      <c r="W13" s="7"/>
+      <c r="W13" s="6"/>
       <c r="X13"/>
       <c r="Y13"/>
-      <c r="Z13" s="12"/>
-      <c r="AA13" s="7"/>
+      <c r="Z13" s="11"/>
+      <c r="AA13" s="6"/>
       <c r="AB13"/>
       <c r="AC13"/>
-      <c r="AD13" s="12"/>
-      <c r="AE13" s="7"/>
+      <c r="AD13" s="11"/>
+      <c r="AE13" s="6"/>
       <c r="AF13"/>
       <c r="AG13"/>
-      <c r="AH13" s="12"/>
-      <c r="AI13" s="7"/>
+      <c r="AH13" s="11"/>
+      <c r="AI13" s="6"/>
       <c r="AJ13"/>
       <c r="AK13"/>
-      <c r="AL13" s="12"/>
-      <c r="AM13" s="7"/>
+      <c r="AL13" s="11"/>
+      <c r="AM13" s="6"/>
       <c r="AN13"/>
       <c r="AO13"/>
-      <c r="AP13" s="12"/>
-      <c r="AQ13" s="16"/>
+      <c r="AP13" s="11"/>
+      <c r="AQ13" s="15"/>
     </row>
     <row r="14" spans="1:44">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="7"/>
+      <c r="A14" s="13"/>
+      <c r="B14" s="13"/>
+      <c r="C14" s="6"/>
       <c r="D14"/>
       <c r="E14"/>
-      <c r="F14" s="12"/>
-      <c r="G14" s="7"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="6"/>
       <c r="H14"/>
       <c r="I14"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="16" t="s">
+      <c r="J14" s="11"/>
+      <c r="K14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="L14" s="16"/>
-      <c r="M14" s="16"/>
-      <c r="N14" s="16"/>
-      <c r="O14" s="16" t="s">
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="15"/>
+      <c r="O14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="P14" s="16"/>
-      <c r="Q14" s="16"/>
-      <c r="R14" s="16"/>
-      <c r="S14" s="16" t="s">
+      <c r="P14" s="15"/>
+      <c r="Q14" s="15"/>
+      <c r="R14" s="15"/>
+      <c r="S14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="T14" s="16"/>
-      <c r="U14" s="16"/>
-      <c r="V14" s="16"/>
-      <c r="W14" s="7"/>
+      <c r="T14" s="15"/>
+      <c r="U14" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="W14" s="6"/>
       <c r="X14"/>
       <c r="Y14"/>
-      <c r="Z14" s="12"/>
-      <c r="AA14" s="7"/>
+      <c r="Z14" s="11"/>
+      <c r="AA14" s="6"/>
       <c r="AB14"/>
       <c r="AC14"/>
-      <c r="AD14" s="12"/>
-      <c r="AE14" s="7"/>
+      <c r="AD14" s="11"/>
+      <c r="AE14" s="6"/>
       <c r="AF14"/>
       <c r="AG14"/>
-      <c r="AH14" s="12"/>
-      <c r="AI14" s="7"/>
+      <c r="AH14" s="11"/>
+      <c r="AI14" s="6"/>
       <c r="AJ14"/>
       <c r="AK14"/>
-      <c r="AL14" s="12"/>
-      <c r="AM14" s="7"/>
+      <c r="AL14" s="11"/>
+      <c r="AM14" s="6"/>
       <c r="AN14"/>
       <c r="AO14"/>
-      <c r="AP14" s="12"/>
-      <c r="AQ14" s="16"/>
+      <c r="AP14" s="11"/>
+      <c r="AQ14" s="15"/>
     </row>
     <row r="15" spans="1:44">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="16" t="s">
+      <c r="A15" s="13"/>
+      <c r="B15" s="13"/>
+      <c r="C15" s="7"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="7"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="16">
+      <c r="L15" s="15">
         <v>2</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="M15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="N15" s="16">
+      <c r="N15" s="15">
         <v>2</v>
       </c>
-      <c r="O15" s="16" t="s">
+      <c r="O15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="P15" s="16">
+      <c r="P15" s="15">
         <v>3</v>
       </c>
-      <c r="Q15" s="16" t="s">
+      <c r="Q15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="R15" s="16">
+      <c r="R15" s="15">
         <v>3</v>
       </c>
-      <c r="S15" s="16" t="s">
+      <c r="S15" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="T15" s="16">
+      <c r="T15" s="15">
         <v>6</v>
       </c>
-      <c r="U15" s="16" t="s">
+      <c r="U15" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="V15" s="16">
+      <c r="V15" s="15">
         <v>6</v>
       </c>
-      <c r="W15" s="8"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="13"/>
-      <c r="AA15" s="8"/>
-      <c r="AB15" s="10"/>
-      <c r="AC15" s="10"/>
-      <c r="AD15" s="13"/>
-      <c r="AE15" s="8"/>
-      <c r="AF15" s="10"/>
-      <c r="AG15" s="10"/>
-      <c r="AH15" s="13"/>
-      <c r="AI15" s="8"/>
-      <c r="AJ15" s="10"/>
-      <c r="AK15" s="10"/>
-      <c r="AL15" s="13"/>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="10"/>
-      <c r="AO15" s="10"/>
-      <c r="AP15" s="13"/>
-      <c r="AQ15" s="16"/>
+      <c r="W15" s="7"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="12"/>
+      <c r="AA15" s="7"/>
+      <c r="AB15" s="9"/>
+      <c r="AC15" s="9"/>
+      <c r="AD15" s="12"/>
+      <c r="AE15" s="7"/>
+      <c r="AF15" s="9"/>
+      <c r="AG15" s="9"/>
+      <c r="AH15" s="12"/>
+      <c r="AI15" s="7"/>
+      <c r="AJ15" s="9"/>
+      <c r="AK15" s="9"/>
+      <c r="AL15" s="12"/>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="9"/>
+      <c r="AO15" s="9"/>
+      <c r="AP15" s="12"/>
+      <c r="AQ15" s="15"/>
     </row>
     <row r="16" spans="1:44">
-      <c r="A16" s="14">
+      <c r="A16" s="13">
         <v>3</v>
       </c>
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="6"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="6"/>
-      <c r="T16" s="9"/>
-      <c r="U16" s="9"/>
-      <c r="V16" s="11"/>
-      <c r="W16" s="16" t="s">
+      <c r="C16" s="5"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="5"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="8"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="5"/>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="X16" s="16"/>
-      <c r="Y16" s="16"/>
-      <c r="Z16" s="16"/>
-      <c r="AA16" s="6"/>
-      <c r="AB16" s="9"/>
-      <c r="AC16" s="9"/>
-      <c r="AD16" s="11"/>
-      <c r="AE16" s="6"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="11"/>
-      <c r="AI16" s="6"/>
-      <c r="AJ16" s="9"/>
-      <c r="AK16" s="9"/>
-      <c r="AL16" s="11"/>
-      <c r="AM16" s="6"/>
-      <c r="AN16" s="9"/>
-      <c r="AO16" s="9"/>
-      <c r="AP16" s="11"/>
-      <c r="AQ16" s="17" t="s">
+      <c r="X16" s="15"/>
+      <c r="Y16" s="15"/>
+      <c r="Z16" s="15"/>
+      <c r="AA16" s="5"/>
+      <c r="AB16" s="8"/>
+      <c r="AC16" s="8"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="5"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="10"/>
+      <c r="AI16" s="5"/>
+      <c r="AJ16" s="8"/>
+      <c r="AK16" s="8"/>
+      <c r="AL16" s="10"/>
+      <c r="AM16" s="5"/>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="10"/>
+      <c r="AQ16" s="16" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:44">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="7"/>
+      <c r="A17" s="13"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="6"/>
       <c r="D17"/>
       <c r="E17"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="7"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="6"/>
       <c r="H17"/>
       <c r="I17"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="7"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="6"/>
       <c r="L17"/>
       <c r="M17"/>
-      <c r="N17" s="12"/>
-      <c r="O17" s="7"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="6"/>
       <c r="P17"/>
       <c r="Q17"/>
-      <c r="R17" s="12"/>
-      <c r="S17" s="7"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="6"/>
       <c r="T17"/>
       <c r="U17"/>
-      <c r="V17" s="12"/>
-      <c r="W17" s="16" t="s">
+      <c r="V17" s="11"/>
+      <c r="W17" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="X17" s="16">
+      <c r="X17" s="15">
         <v>4</v>
       </c>
-      <c r="Y17" s="16" t="s">
+      <c r="Y17" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Z17" s="16">
+      <c r="Z17" s="15">
         <v>4</v>
       </c>
-      <c r="AA17" s="7"/>
+      <c r="AA17" s="6"/>
       <c r="AB17"/>
       <c r="AC17"/>
-      <c r="AD17" s="12"/>
-      <c r="AE17" s="7"/>
+      <c r="AD17" s="11"/>
+      <c r="AE17" s="6"/>
       <c r="AF17"/>
       <c r="AG17"/>
-      <c r="AH17" s="12"/>
-      <c r="AI17" s="7"/>
+      <c r="AH17" s="11"/>
+      <c r="AI17" s="6"/>
       <c r="AJ17"/>
       <c r="AK17"/>
-      <c r="AL17" s="12"/>
-      <c r="AM17" s="7"/>
+      <c r="AL17" s="11"/>
+      <c r="AM17" s="6"/>
       <c r="AN17"/>
       <c r="AO17"/>
-      <c r="AP17" s="12"/>
-      <c r="AQ17" s="16"/>
+      <c r="AP17" s="11"/>
+      <c r="AQ17" s="15"/>
     </row>
     <row r="18" spans="1:44">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="7"/>
+      <c r="A18" s="13"/>
+      <c r="B18" s="13"/>
+      <c r="C18" s="6"/>
       <c r="D18"/>
       <c r="E18"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="7"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="6"/>
       <c r="H18"/>
       <c r="I18"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="7"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="6"/>
       <c r="L18"/>
       <c r="M18"/>
-      <c r="N18" s="12"/>
-      <c r="O18" s="7"/>
+      <c r="N18" s="11"/>
+      <c r="O18" s="6"/>
       <c r="P18"/>
       <c r="Q18"/>
-      <c r="R18" s="12"/>
-      <c r="S18" s="7"/>
+      <c r="R18" s="11"/>
+      <c r="S18" s="6"/>
       <c r="T18"/>
       <c r="U18"/>
-      <c r="V18" s="12"/>
-      <c r="W18" s="16" t="s">
+      <c r="V18" s="11"/>
+      <c r="W18" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="X18" s="16"/>
-      <c r="Y18" s="16"/>
-      <c r="Z18" s="16"/>
-      <c r="AA18" s="7"/>
+      <c r="X18" s="15"/>
+      <c r="Y18" s="15"/>
+      <c r="Z18" s="15"/>
+      <c r="AA18" s="6"/>
       <c r="AB18"/>
       <c r="AC18"/>
-      <c r="AD18" s="12"/>
-      <c r="AE18" s="7"/>
+      <c r="AD18" s="11"/>
+      <c r="AE18" s="6"/>
       <c r="AF18"/>
       <c r="AG18"/>
-      <c r="AH18" s="12"/>
-      <c r="AI18" s="7"/>
+      <c r="AH18" s="11"/>
+      <c r="AI18" s="6"/>
       <c r="AJ18"/>
       <c r="AK18"/>
-      <c r="AL18" s="12"/>
-      <c r="AM18" s="7"/>
+      <c r="AL18" s="11"/>
+      <c r="AM18" s="6"/>
       <c r="AN18"/>
       <c r="AO18"/>
-      <c r="AP18" s="12"/>
-      <c r="AQ18" s="16"/>
+      <c r="AP18" s="11"/>
+      <c r="AQ18" s="15"/>
     </row>
     <row r="19" spans="1:44">
-      <c r="A19" s="14"/>
-      <c r="B19" s="14"/>
-      <c r="C19" s="7"/>
+      <c r="A19" s="13"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="6"/>
       <c r="D19"/>
       <c r="E19"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="7"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="6"/>
       <c r="H19"/>
       <c r="I19"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="7"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="6"/>
       <c r="L19"/>
       <c r="M19"/>
-      <c r="N19" s="12"/>
-      <c r="O19" s="7"/>
+      <c r="N19" s="11"/>
+      <c r="O19" s="6"/>
       <c r="P19"/>
       <c r="Q19"/>
-      <c r="R19" s="12"/>
-      <c r="S19" s="7"/>
+      <c r="R19" s="11"/>
+      <c r="S19" s="6"/>
       <c r="T19"/>
       <c r="U19"/>
-      <c r="V19" s="12"/>
-      <c r="W19" s="16" t="s">
+      <c r="V19" s="11"/>
+      <c r="W19" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="X19" s="16">
+      <c r="X19" s="15">
         <v>4</v>
       </c>
-      <c r="Y19" s="16" t="s">
+      <c r="Y19" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Z19" s="16">
+      <c r="Z19" s="15">
         <v>4</v>
       </c>
-      <c r="AA19" s="7"/>
+      <c r="AA19" s="6"/>
       <c r="AB19"/>
       <c r="AC19"/>
-      <c r="AD19" s="12"/>
-      <c r="AE19" s="7"/>
+      <c r="AD19" s="11"/>
+      <c r="AE19" s="6"/>
       <c r="AF19"/>
       <c r="AG19"/>
-      <c r="AH19" s="12"/>
-      <c r="AI19" s="7"/>
+      <c r="AH19" s="11"/>
+      <c r="AI19" s="6"/>
       <c r="AJ19"/>
       <c r="AK19"/>
-      <c r="AL19" s="12"/>
-      <c r="AM19" s="7"/>
+      <c r="AL19" s="11"/>
+      <c r="AM19" s="6"/>
       <c r="AN19"/>
       <c r="AO19"/>
-      <c r="AP19" s="12"/>
-      <c r="AQ19" s="16"/>
+      <c r="AP19" s="11"/>
+      <c r="AQ19" s="15"/>
     </row>
     <row r="20" spans="1:44">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-      <c r="C20" s="7"/>
+      <c r="A20" s="13"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="6"/>
       <c r="D20"/>
       <c r="E20"/>
-      <c r="F20" s="12"/>
-      <c r="G20" s="7"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="6"/>
       <c r="H20"/>
       <c r="I20"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="7"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="6"/>
       <c r="L20"/>
       <c r="M20"/>
-      <c r="N20" s="12"/>
-      <c r="O20" s="7"/>
+      <c r="N20" s="11"/>
+      <c r="O20" s="6"/>
       <c r="P20"/>
       <c r="Q20"/>
-      <c r="R20" s="12"/>
-      <c r="S20" s="7"/>
+      <c r="R20" s="11"/>
+      <c r="S20" s="6"/>
       <c r="T20"/>
       <c r="U20"/>
-      <c r="V20" s="12"/>
-      <c r="W20" s="16" t="s">
+      <c r="V20" s="11"/>
+      <c r="W20" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="X20" s="16"/>
-      <c r="Y20" s="16"/>
-      <c r="Z20" s="16"/>
-      <c r="AA20" s="7"/>
+      <c r="X20" s="15"/>
+      <c r="Y20" s="15"/>
+      <c r="Z20" s="15"/>
+      <c r="AA20" s="6"/>
       <c r="AB20"/>
       <c r="AC20"/>
-      <c r="AD20" s="12"/>
-      <c r="AE20" s="7"/>
+      <c r="AD20" s="11"/>
+      <c r="AE20" s="6"/>
       <c r="AF20"/>
       <c r="AG20"/>
-      <c r="AH20" s="12"/>
-      <c r="AI20" s="7"/>
+      <c r="AH20" s="11"/>
+      <c r="AI20" s="6"/>
       <c r="AJ20"/>
       <c r="AK20"/>
-      <c r="AL20" s="12"/>
-      <c r="AM20" s="7"/>
+      <c r="AL20" s="11"/>
+      <c r="AM20" s="6"/>
       <c r="AN20"/>
       <c r="AO20"/>
-      <c r="AP20" s="12"/>
-      <c r="AQ20" s="16"/>
+      <c r="AP20" s="11"/>
+      <c r="AQ20" s="15"/>
     </row>
     <row r="21" spans="1:44">
-      <c r="A21" s="14"/>
-      <c r="B21" s="14"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="13"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="13"/>
-      <c r="K21" s="8"/>
-      <c r="L21" s="10"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="13"/>
-      <c r="O21" s="8"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="8"/>
-      <c r="T21" s="10"/>
-      <c r="U21" s="10"/>
-      <c r="V21" s="13"/>
-      <c r="W21" s="16" t="s">
+      <c r="A21" s="13"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+      <c r="F21" s="12"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="9"/>
+      <c r="I21" s="9"/>
+      <c r="J21" s="12"/>
+      <c r="K21" s="7"/>
+      <c r="L21" s="9"/>
+      <c r="M21" s="9"/>
+      <c r="N21" s="12"/>
+      <c r="O21" s="7"/>
+      <c r="P21" s="9"/>
+      <c r="Q21" s="9"/>
+      <c r="R21" s="12"/>
+      <c r="S21" s="7"/>
+      <c r="T21" s="9"/>
+      <c r="U21" s="9"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="X21" s="16">
+      <c r="X21" s="15">
         <v>4</v>
       </c>
-      <c r="Y21" s="16" t="s">
+      <c r="Y21" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="Z21" s="16">
+      <c r="Z21" s="15">
         <v>4</v>
       </c>
-      <c r="AA21" s="8"/>
-      <c r="AB21" s="10"/>
-      <c r="AC21" s="10"/>
-      <c r="AD21" s="13"/>
-      <c r="AE21" s="8"/>
-      <c r="AF21" s="10"/>
-      <c r="AG21" s="10"/>
-      <c r="AH21" s="13"/>
-      <c r="AI21" s="8"/>
-      <c r="AJ21" s="10"/>
-      <c r="AK21" s="10"/>
-      <c r="AL21" s="13"/>
-      <c r="AM21" s="8"/>
-      <c r="AN21" s="10"/>
-      <c r="AO21" s="10"/>
-      <c r="AP21" s="13"/>
-      <c r="AQ21" s="16"/>
+      <c r="AA21" s="7"/>
+      <c r="AB21" s="9"/>
+      <c r="AC21" s="9"/>
+      <c r="AD21" s="12"/>
+      <c r="AE21" s="7"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="12"/>
+      <c r="AI21" s="7"/>
+      <c r="AJ21" s="9"/>
+      <c r="AK21" s="9"/>
+      <c r="AL21" s="12"/>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="9"/>
+      <c r="AO21" s="9"/>
+      <c r="AP21" s="12"/>
+      <c r="AQ21" s="15"/>
     </row>
     <row r="22" spans="1:44">
-      <c r="A22" s="14">
+      <c r="A22" s="13">
         <v>4</v>
       </c>
-      <c r="B22" s="14" t="s">
+      <c r="B22" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="C22" s="6"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="6"/>
-      <c r="L22" s="9"/>
-      <c r="M22" s="9"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="6"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="6"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="9"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="6"/>
-      <c r="X22" s="9"/>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="6"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="16" t="s">
+      <c r="C22" s="5"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="8"/>
+      <c r="I22" s="8"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="8"/>
+      <c r="M22" s="8"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="5"/>
+      <c r="P22" s="8"/>
+      <c r="Q22" s="8"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="5"/>
+      <c r="T22" s="8"/>
+      <c r="U22" s="8"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="5"/>
+      <c r="X22" s="8"/>
+      <c r="Y22" s="8"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="5"/>
+      <c r="AB22" s="8"/>
+      <c r="AC22" s="8"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AF22" s="16"/>
-      <c r="AG22" s="16"/>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="6"/>
-      <c r="AJ22" s="9"/>
-      <c r="AK22" s="9"/>
-      <c r="AL22" s="11"/>
-      <c r="AM22" s="6"/>
-      <c r="AN22" s="9"/>
-      <c r="AO22" s="9"/>
-      <c r="AP22" s="11"/>
-      <c r="AQ22" s="17" t="s">
+      <c r="AF22" s="15"/>
+      <c r="AG22" s="15"/>
+      <c r="AH22" s="15"/>
+      <c r="AI22" s="5"/>
+      <c r="AJ22" s="8"/>
+      <c r="AK22" s="8"/>
+      <c r="AL22" s="10"/>
+      <c r="AM22" s="5"/>
+      <c r="AN22" s="8"/>
+      <c r="AO22" s="8"/>
+      <c r="AP22" s="10"/>
+      <c r="AQ22" s="16" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:44">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-      <c r="C23" s="7"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="13"/>
+      <c r="C23" s="6"/>
       <c r="D23"/>
       <c r="E23"/>
-      <c r="F23" s="12"/>
-      <c r="G23" s="7"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="6"/>
       <c r="H23"/>
       <c r="I23"/>
-      <c r="J23" s="12"/>
-      <c r="K23" s="7"/>
+      <c r="J23" s="11"/>
+      <c r="K23" s="6"/>
       <c r="L23"/>
       <c r="M23"/>
-      <c r="N23" s="12"/>
-      <c r="O23" s="7"/>
+      <c r="N23" s="11"/>
+      <c r="O23" s="6"/>
       <c r="P23"/>
       <c r="Q23"/>
-      <c r="R23" s="12"/>
-      <c r="S23" s="7"/>
+      <c r="R23" s="11"/>
+      <c r="S23" s="6"/>
       <c r="T23"/>
       <c r="U23"/>
-      <c r="V23" s="12"/>
-      <c r="W23" s="7"/>
+      <c r="V23" s="11"/>
+      <c r="W23" s="6"/>
       <c r="X23"/>
       <c r="Y23"/>
-      <c r="Z23" s="12"/>
-      <c r="AA23" s="7"/>
+      <c r="Z23" s="11"/>
+      <c r="AA23" s="6"/>
       <c r="AB23"/>
       <c r="AC23"/>
-      <c r="AD23" s="12"/>
-      <c r="AE23" s="16" t="s">
+      <c r="AD23" s="11"/>
+      <c r="AE23" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AF23" s="16">
+      <c r="AF23" s="15">
         <v>5</v>
       </c>
-      <c r="AG23" s="16" t="s">
+      <c r="AG23" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AH23" s="16">
+      <c r="AH23" s="15">
         <v>5</v>
       </c>
-      <c r="AI23" s="7"/>
+      <c r="AI23" s="6"/>
       <c r="AJ23"/>
       <c r="AK23"/>
-      <c r="AL23" s="12"/>
-      <c r="AM23" s="7"/>
+      <c r="AL23" s="11"/>
+      <c r="AM23" s="6"/>
       <c r="AN23"/>
       <c r="AO23"/>
-      <c r="AP23" s="12"/>
-      <c r="AQ23" s="16"/>
+      <c r="AP23" s="11"/>
+      <c r="AQ23" s="15"/>
     </row>
     <row r="24" spans="1:44">
-      <c r="A24" s="14"/>
-      <c r="B24" s="14"/>
-      <c r="C24" s="7"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="6"/>
       <c r="D24"/>
       <c r="E24"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="7"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="6"/>
       <c r="H24"/>
       <c r="I24"/>
-      <c r="J24" s="12"/>
-      <c r="K24" s="7"/>
+      <c r="J24" s="11"/>
+      <c r="K24" s="6"/>
       <c r="L24"/>
       <c r="M24"/>
-      <c r="N24" s="12"/>
-      <c r="O24" s="7"/>
+      <c r="N24" s="11"/>
+      <c r="O24" s="6"/>
       <c r="P24"/>
       <c r="Q24"/>
-      <c r="R24" s="12"/>
-      <c r="S24" s="7"/>
+      <c r="R24" s="11"/>
+      <c r="S24" s="6"/>
       <c r="T24"/>
       <c r="U24"/>
-      <c r="V24" s="12"/>
-      <c r="W24" s="7"/>
+      <c r="V24" s="11"/>
+      <c r="W24" s="6"/>
       <c r="X24"/>
       <c r="Y24"/>
-      <c r="Z24" s="12"/>
-      <c r="AA24" s="7"/>
+      <c r="Z24" s="11"/>
+      <c r="AA24" s="6"/>
       <c r="AB24"/>
       <c r="AC24"/>
-      <c r="AD24" s="12"/>
-      <c r="AE24" s="16" t="s">
+      <c r="AD24" s="11"/>
+      <c r="AE24" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="7"/>
+      <c r="AF24" s="15"/>
+      <c r="AG24" s="15"/>
+      <c r="AH24" s="15"/>
+      <c r="AI24" s="6"/>
       <c r="AJ24"/>
       <c r="AK24"/>
-      <c r="AL24" s="12"/>
-      <c r="AM24" s="7"/>
+      <c r="AL24" s="11"/>
+      <c r="AM24" s="6"/>
       <c r="AN24"/>
       <c r="AO24"/>
-      <c r="AP24" s="12"/>
-      <c r="AQ24" s="16"/>
+      <c r="AP24" s="11"/>
+      <c r="AQ24" s="15"/>
     </row>
     <row r="25" spans="1:44">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="7"/>
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="6"/>
       <c r="D25"/>
       <c r="E25"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="7"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="6"/>
       <c r="H25"/>
       <c r="I25"/>
-      <c r="J25" s="12"/>
-      <c r="K25" s="7"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="6"/>
       <c r="L25"/>
       <c r="M25"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="7"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="6"/>
       <c r="P25"/>
       <c r="Q25"/>
-      <c r="R25" s="12"/>
-      <c r="S25" s="7"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="6"/>
       <c r="T25"/>
       <c r="U25"/>
-      <c r="V25" s="12"/>
-      <c r="W25" s="7"/>
+      <c r="V25" s="11"/>
+      <c r="W25" s="6"/>
       <c r="X25"/>
       <c r="Y25"/>
-      <c r="Z25" s="12"/>
-      <c r="AA25" s="7"/>
+      <c r="Z25" s="11"/>
+      <c r="AA25" s="6"/>
       <c r="AB25"/>
       <c r="AC25"/>
-      <c r="AD25" s="12"/>
-      <c r="AE25" s="16" t="s">
+      <c r="AD25" s="11"/>
+      <c r="AE25" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AF25" s="16">
+      <c r="AF25" s="15">
         <v>5</v>
       </c>
-      <c r="AG25" s="16" t="s">
+      <c r="AG25" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AH25" s="16">
+      <c r="AH25" s="15">
         <v>5</v>
       </c>
-      <c r="AI25" s="7"/>
+      <c r="AI25" s="6"/>
       <c r="AJ25"/>
       <c r="AK25"/>
-      <c r="AL25" s="12"/>
-      <c r="AM25" s="7"/>
+      <c r="AL25" s="11"/>
+      <c r="AM25" s="6"/>
       <c r="AN25"/>
       <c r="AO25"/>
-      <c r="AP25" s="12"/>
-      <c r="AQ25" s="16"/>
+      <c r="AP25" s="11"/>
+      <c r="AQ25" s="15"/>
     </row>
     <row r="26" spans="1:44">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-      <c r="C26" s="7"/>
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="6"/>
       <c r="D26"/>
       <c r="E26"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="7"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="6"/>
       <c r="H26"/>
       <c r="I26"/>
-      <c r="J26" s="12"/>
-      <c r="K26" s="7"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="6"/>
       <c r="L26"/>
       <c r="M26"/>
-      <c r="N26" s="12"/>
-      <c r="O26" s="7"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="6"/>
       <c r="P26"/>
       <c r="Q26"/>
-      <c r="R26" s="12"/>
-      <c r="S26" s="7"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="6"/>
       <c r="T26"/>
       <c r="U26"/>
-      <c r="V26" s="12"/>
-      <c r="W26" s="7"/>
+      <c r="V26" s="11"/>
+      <c r="W26" s="6"/>
       <c r="X26"/>
       <c r="Y26"/>
-      <c r="Z26" s="12"/>
-      <c r="AA26" s="7"/>
+      <c r="Z26" s="11"/>
+      <c r="AA26" s="6"/>
       <c r="AB26"/>
       <c r="AC26"/>
-      <c r="AD26" s="12"/>
-      <c r="AE26" s="16" t="s">
+      <c r="AD26" s="11"/>
+      <c r="AE26" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="16"/>
-      <c r="AH26" s="16"/>
-      <c r="AI26" s="7"/>
+      <c r="AF26" s="15"/>
+      <c r="AG26" s="15"/>
+      <c r="AH26" s="15"/>
+      <c r="AI26" s="6"/>
       <c r="AJ26"/>
       <c r="AK26"/>
-      <c r="AL26" s="12"/>
-      <c r="AM26" s="7"/>
+      <c r="AL26" s="11"/>
+      <c r="AM26" s="6"/>
       <c r="AN26"/>
       <c r="AO26"/>
-      <c r="AP26" s="12"/>
-      <c r="AQ26" s="16"/>
+      <c r="AP26" s="11"/>
+      <c r="AQ26" s="15"/>
     </row>
     <row r="27" spans="1:44">
-      <c r="A27" s="14"/>
-      <c r="B27" s="14"/>
-      <c r="C27" s="8"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="13"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="10"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="13"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-      <c r="R27" s="13"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="10"/>
-      <c r="U27" s="10"/>
-      <c r="V27" s="13"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="10"/>
-      <c r="Y27" s="10"/>
-      <c r="Z27" s="13"/>
-      <c r="AA27" s="8"/>
-      <c r="AB27" s="10"/>
-      <c r="AC27" s="10"/>
-      <c r="AD27" s="13"/>
-      <c r="AE27" s="16" t="s">
+      <c r="A27" s="13"/>
+      <c r="B27" s="13"/>
+      <c r="C27" s="7"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="7"/>
+      <c r="H27" s="9"/>
+      <c r="I27" s="9"/>
+      <c r="J27" s="12"/>
+      <c r="K27" s="7"/>
+      <c r="L27" s="9"/>
+      <c r="M27" s="9"/>
+      <c r="N27" s="12"/>
+      <c r="O27" s="7"/>
+      <c r="P27" s="9"/>
+      <c r="Q27" s="9"/>
+      <c r="R27" s="12"/>
+      <c r="S27" s="7"/>
+      <c r="T27" s="9"/>
+      <c r="U27" s="9"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="7"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="12"/>
+      <c r="AA27" s="7"/>
+      <c r="AB27" s="9"/>
+      <c r="AC27" s="9"/>
+      <c r="AD27" s="12"/>
+      <c r="AE27" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="AF27" s="16">
+      <c r="AF27" s="15">
         <v>5</v>
       </c>
-      <c r="AG27" s="16" t="s">
+      <c r="AG27" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="AH27" s="16">
+      <c r="AH27" s="15">
         <v>5</v>
       </c>
-      <c r="AI27" s="8"/>
-      <c r="AJ27" s="10"/>
-      <c r="AK27" s="10"/>
-      <c r="AL27" s="13"/>
-      <c r="AM27" s="8"/>
-      <c r="AN27" s="10"/>
-      <c r="AO27" s="10"/>
-      <c r="AP27" s="13"/>
-      <c r="AQ27" s="16"/>
+      <c r="AI27" s="7"/>
+      <c r="AJ27" s="9"/>
+      <c r="AK27" s="9"/>
+      <c r="AL27" s="12"/>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="9"/>
+      <c r="AO27" s="9"/>
+      <c r="AP27" s="12"/>
+      <c r="AQ27" s="15"/>
     </row>
     <row r="28" spans="1:44">
-      <c r="A28" s="15" t="s">
+      <c r="A28" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="15" t="s">
+      <c r="B28" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="17">
         <v>0</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18">
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17">
         <v>3</v>
       </c>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18">
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
+      <c r="J28" s="17"/>
+      <c r="K28" s="17">
         <v>6</v>
       </c>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18">
+      <c r="L28" s="17"/>
+      <c r="M28" s="17"/>
+      <c r="N28" s="17"/>
+      <c r="O28" s="17">
         <v>9</v>
       </c>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18">
+      <c r="P28" s="17"/>
+      <c r="Q28" s="17"/>
+      <c r="R28" s="17"/>
+      <c r="S28" s="17">
         <v>18</v>
       </c>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18">
+      <c r="T28" s="17"/>
+      <c r="U28" s="17"/>
+      <c r="V28" s="17"/>
+      <c r="W28" s="17">
         <v>12</v>
       </c>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18">
+      <c r="X28" s="17"/>
+      <c r="Y28" s="17"/>
+      <c r="Z28" s="17"/>
+      <c r="AA28" s="17">
         <v>0</v>
       </c>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18">
+      <c r="AB28" s="17"/>
+      <c r="AC28" s="17"/>
+      <c r="AD28" s="17"/>
+      <c r="AE28" s="17">
         <v>15</v>
       </c>
-      <c r="AF28" s="18"/>
-      <c r="AG28" s="18"/>
-      <c r="AH28" s="18"/>
-      <c r="AI28" s="18">
+      <c r="AF28" s="17"/>
+      <c r="AG28" s="17"/>
+      <c r="AH28" s="17"/>
+      <c r="AI28" s="17">
         <v>0</v>
       </c>
-      <c r="AJ28" s="18"/>
-      <c r="AK28" s="18"/>
-      <c r="AL28" s="18"/>
-      <c r="AM28" s="18">
+      <c r="AJ28" s="17"/>
+      <c r="AK28" s="17"/>
+      <c r="AL28" s="17"/>
+      <c r="AM28" s="17">
         <v>0</v>
       </c>
-      <c r="AN28" s="18"/>
-      <c r="AO28" s="18"/>
-      <c r="AP28" s="18"/>
+      <c r="AN28" s="17"/>
+      <c r="AO28" s="17"/>
+      <c r="AP28" s="17"/>
     </row>
     <row r="29" spans="1:44">
-      <c r="A29" s="15"/>
-      <c r="B29" s="15" t="s">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="17">
         <v>0</v>
       </c>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18">
+      <c r="D29" s="17"/>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="17">
         <v>3</v>
       </c>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18">
+      <c r="H29" s="17"/>
+      <c r="I29" s="17"/>
+      <c r="J29" s="17"/>
+      <c r="K29" s="17">
         <v>6</v>
       </c>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18">
+      <c r="L29" s="17"/>
+      <c r="M29" s="17"/>
+      <c r="N29" s="17"/>
+      <c r="O29" s="17">
         <v>9</v>
       </c>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18">
+      <c r="P29" s="17"/>
+      <c r="Q29" s="17"/>
+      <c r="R29" s="17"/>
+      <c r="S29" s="17">
         <v>18</v>
       </c>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18">
+      <c r="T29" s="17"/>
+      <c r="U29" s="17"/>
+      <c r="V29" s="17"/>
+      <c r="W29" s="17">
         <v>12</v>
       </c>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18">
+      <c r="X29" s="17"/>
+      <c r="Y29" s="17"/>
+      <c r="Z29" s="17"/>
+      <c r="AA29" s="17">
         <v>0</v>
       </c>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="18"/>
-      <c r="AD29" s="18"/>
-      <c r="AE29" s="18">
+      <c r="AB29" s="17"/>
+      <c r="AC29" s="17"/>
+      <c r="AD29" s="17"/>
+      <c r="AE29" s="17">
         <v>15</v>
       </c>
-      <c r="AF29" s="18"/>
-      <c r="AG29" s="18"/>
-      <c r="AH29" s="18"/>
-      <c r="AI29" s="18">
+      <c r="AF29" s="17"/>
+      <c r="AG29" s="17"/>
+      <c r="AH29" s="17"/>
+      <c r="AI29" s="17">
         <v>0</v>
       </c>
-      <c r="AJ29" s="18"/>
-      <c r="AK29" s="18"/>
-      <c r="AL29" s="18"/>
-      <c r="AM29" s="18">
+      <c r="AJ29" s="17"/>
+      <c r="AK29" s="17"/>
+      <c r="AL29" s="17"/>
+      <c r="AM29" s="17">
         <v>0</v>
       </c>
-      <c r="AN29" s="18"/>
-      <c r="AO29" s="18"/>
-      <c r="AP29" s="18"/>
+      <c r="AN29" s="17"/>
+      <c r="AO29" s="17"/>
+      <c r="AP29" s="17"/>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>

--- a/phpexcel_test/demo_222.xlsx
+++ b/phpexcel_test/demo_222.xlsx
@@ -631,7 +631,7 @@
   <dimension ref="A1:AR29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
-      <selection activeCell="AM29" sqref="AM29"/>
+      <selection activeCell="AQ29" sqref="AQ29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2136,6 +2136,9 @@
       <c r="AN28" s="17"/>
       <c r="AO28" s="17"/>
       <c r="AP28" s="17"/>
+      <c r="AQ28" s="17">
+        <v>63</v>
+      </c>
     </row>
     <row r="29" spans="1:44">
       <c r="A29" s="14"/>
@@ -2202,6 +2205,9 @@
       <c r="AN29" s="17"/>
       <c r="AO29" s="17"/>
       <c r="AP29" s="17"/>
+      <c r="AQ29" s="17">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
